--- a/Upload Data/Reading Exercise/Part 7/test2.xlsx
+++ b/Upload Data/Reading Exercise/Part 7/test2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PBL5\Upload Data\Reading Exercise\Part 7\Test2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PBL5\Upload Data\Reading Exercise\Part 7\Test7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125995E4-0234-42CA-83A9-0929B7FE0165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14E1487-3ABF-43E0-829F-3B412217555D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,64 +45,64 @@
     <t>Giai thich</t>
   </si>
   <si>
-    <t>Giải thích</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
     <t>Cau hoi</t>
   </si>
   <si>
-    <t>What is indicated about the old courthouse?</t>
-  </si>
-  <si>
-    <t>In which of the positions marked [1], [2], [3] and [4] does the following sentence belong? “Branford Construction, the development company that originally planned to build the shopping mall, is looking to build the mall outside of the Rivervalley Community.”</t>
-  </si>
-  <si>
-    <t>What is suggested about the fundraising efforts?</t>
-  </si>
-  <si>
-    <t>(A) Branford Construction wants to renovate the building.</t>
-  </si>
-  <si>
-    <t>(B) The residents want to turn the building into a shopping mall.</t>
-  </si>
-  <si>
-    <t>(C) It may become a public library or school.</t>
-  </si>
-  <si>
-    <t>(D) It may be destroyed.</t>
-  </si>
-  <si>
-    <t>(A) [1]</t>
-  </si>
-  <si>
-    <t>(B) [2]</t>
-  </si>
-  <si>
-    <t>(C) [3]</t>
-  </si>
-  <si>
-    <t>(D) [4]</t>
-  </si>
-  <si>
-    <t>(A) The community made a lot of money from the land.</t>
-  </si>
-  <si>
-    <t>(B) It has been occuring online.</t>
-  </si>
-  <si>
-    <t>(C) The city government has been helping</t>
-  </si>
-  <si>
-    <t>(D) They haven’t raised enough money</t>
-  </si>
-  <si>
-    <t>After a months-long battle to stop the development of a new shopping mall on the location of the former Rivervalley Courthouse, residents, local businesses, and civic groups are cheering the decision to keep the 150-year-old building intact. - [1] - “We’re dissappointed,” added Branford Construction's CEO. “We felt that the community would benefit and grow, but obviously, residents want to preserve their history and I respect that.”</t>
+    <t>What is the purpose of this announcement?</t>
+  </si>
+  <si>
+    <t>Where will the seminar take place?</t>
+  </si>
+  <si>
+    <t>(A) To introduce a new policy</t>
+  </si>
+  <si>
+    <t>(B) To invite employees to a seminar</t>
+  </si>
+  <si>
+    <t>(C) To announce a holiday</t>
+  </si>
+  <si>
+    <t>(D) To promote a new product</t>
+  </si>
+  <si>
+    <t>(A) In the main hall</t>
+  </si>
+  <si>
+    <t>(B) In the cafeteria</t>
+  </si>
+  <si>
+    <t>(C) In the gym</t>
+  </si>
+  <si>
+    <t>(D) In the meeting room</t>
+  </si>
+  <si>
+    <t>(A) Career development</t>
+  </si>
+  <si>
+    <t>(B) Healthy lifestyle</t>
+  </si>
+  <si>
+    <t>(C) Company policies</t>
+  </si>
+  <si>
+    <t>(D) Team building</t>
+  </si>
+  <si>
+    <t>The announcement invites employees to a seminar.</t>
+  </si>
+  <si>
+    <t>The seminar is scheduled in the cafeteria.</t>
+  </si>
+  <si>
+    <t>The seminar focuses on health and wellness.</t>
+  </si>
+  <si>
+    <t>Attention Employees, The company will be hosting a health and wellness seminar this Friday at 2 PM in the cafeteria. Join us to learn more about maintaining a healthy lifestyle. - HR Department</t>
   </si>
 </sst>
 </file>
@@ -166,7 +166,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -453,19 +453,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="70" customWidth="1"/>
-    <col min="2" max="2" width="28.453125" customWidth="1"/>
+    <col min="1" max="1" width="90.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -486,78 +485,78 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -565,6 +564,5 @@
     <mergeCell ref="A2:A4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>